--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_17_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1517959.896916666</v>
+        <v>1450551.81564151</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5355190.694075863</v>
+        <v>5355190.694075867</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6611637.72918744</v>
+        <v>6611637.729187441</v>
       </c>
     </row>
     <row r="11">
@@ -1378,67 +1378,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>143.6986535128387</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>143.6986535128387</v>
       </c>
     </row>
     <row r="12">
@@ -1448,17 +1448,17 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>143.6986535128387</v>
+      </c>
+      <c r="V12" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="T12" t="n">
-        <v>143.6986535128387</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="X12" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>138.7107058999012</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.78000272165373</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.42485270188878</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.8402800796559</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>154.6102311478331</v>
       </c>
     </row>
     <row r="14">
@@ -1606,70 +1606,70 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>70.55237628599308</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6986535128387</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>73.1462772268456</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>73.3575506154296</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>70.34110289740906</v>
       </c>
       <c r="S15" t="n">
         <v>163.1456102552665</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>163.1456102552665</v>
       </c>
       <c r="X15" t="n">
-        <v>143.6986535128387</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.427580897122422</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>154.6102311478331</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,20 +1852,20 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>163.1456102552665</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>163.1456102552665</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>143.6986535128387</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.33084579411751</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>70.34110289740906</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.6986535128387</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2046,28 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.42485270188878</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>154.6102311478332</v>
+      </c>
+      <c r="X19" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>100.1853784459443</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>70.55237628599311</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>163.1456102552665</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.1462772268456</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>143.6986535128387</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>70.34110289740906</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>148.0208246481768</v>
       </c>
       <c r="U21" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>163.1456102552665</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>73.3575506154296</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>12.93408993560812</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>154.6102311478332</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>326.2912205105329</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.1462772268456</v>
       </c>
       <c r="S23" t="n">
         <v>183.3557715772301</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9824692835151</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>30.89525822160171</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>216.3502866754653</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>326.2912205105329</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>111.6144673924946</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>172.3308460267565</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U24" t="n">
         <v>237.159852453347</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>140.9591803005247</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.8314735854091</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>158.0955184526211</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.13356359705832</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>154.9744596203358</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5.679997416697721</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.1462772268456</v>
       </c>
       <c r="S26" t="n">
-        <v>183.3557715772301</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>213.9824692835151</v>
       </c>
       <c r="U26" t="n">
-        <v>249.9955048348989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>292.6460023510992</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>326.2912205105329</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>17.77342524146968</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>70.34110289740906</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>172.3308460267565</v>
@@ -2693,16 +2693,16 @@
         <v>237.159852453347</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>68.29416994950866</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.94929939155807</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>164.3430117350647</v>
+        <v>40.56568795769331</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>220.288492801435</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.0472708992378</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6091405317433</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>290.5467454744659</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>326.2912205105329</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.1462772268456</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9824692835151</v>
       </c>
       <c r="U29" t="n">
-        <v>249.9955048348989</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>216.3502866754653</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>70.34110289740906</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7515333158113</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T30" t="n">
         <v>210.791492737841</v>
       </c>
       <c r="U30" t="n">
-        <v>237.159852453347</v>
+        <v>150.8910853444326</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.42485270188878</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>204.5571435482347</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>190.5907445690307</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>214.2510297988319</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>73.1462772268456</v>
       </c>
       <c r="S32" t="n">
-        <v>183.3557715772301</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9824692835151</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>249.9955048348989</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>219.4997251242535</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>326.2912205105329</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3116,19 +3116,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.998866610142005</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>115.7212625938658</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>71.66315755721155</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>237.159852453347</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>229.0909392142666</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.42485270188878</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>164.3430117350647</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>262.1335872214125</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>235.7924364739161</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>70.55237628599311</v>
       </c>
       <c r="E35" t="n">
         <v>163.1456102552665</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.1462772268456</v>
       </c>
       <c r="S35" t="n">
-        <v>143.6986535128387</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,64 +3347,64 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>147.7077054127944</v>
+      </c>
+      <c r="H36" t="n">
+        <v>115.7212625938658</v>
+      </c>
+      <c r="I36" t="n">
+        <v>71.66315755721155</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="D36" t="n">
-        <v>159.1723150765785</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>147.6719486915266</v>
+        <v>134.8977484595</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3423,67 +3423,67 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>54.42485270188878</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="U37" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>100.1853784459443</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>154.6102311478331</v>
       </c>
     </row>
     <row r="38">
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>163.1456102552665</v>
+      </c>
+      <c r="E38" t="n">
+        <v>163.1456102552665</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>163.1456102552665</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>143.6986535128387</v>
-      </c>
-      <c r="C38" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="G38" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,61 +3581,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>147.6719486915266</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>115.7212625938658</v>
+      </c>
+      <c r="I39" t="n">
+        <v>71.66315755721155</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="D39" t="n">
-        <v>159.1723150765785</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>119.4598436170278</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,20 +3663,20 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>138.9268822184467</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.78000272165373</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>120.0489564629992</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>154.6102311478331</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>70.55237628599308</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="H41" t="n">
-        <v>70.55237628599308</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>163.1456102552665</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>71.66315755721155</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.3131192353824644</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>72.03549595562711</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>163.1456102552665</v>
       </c>
       <c r="H43" t="n">
-        <v>95.83022842617936</v>
+        <v>154.6102311478331</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.78000272165373</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>163.1456102552665</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>143.6986535128387</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>163.1456102552665</v>
       </c>
     </row>
     <row r="45">
@@ -4055,76 +4055,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>71.66315755721155</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>72.03549595562717</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>163.1456102552665</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>70.34110289740906</v>
-      </c>
-      <c r="S45" t="n">
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="T45" t="n">
-        <v>163.1456102552665</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>73.3575506154296</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>17.98418173825346</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="H46" t="n">
-        <v>158.0955184526211</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>154.6102311478332</v>
+      </c>
+      <c r="V46" t="n">
         <v>163.1456102552665</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>342.638740245202</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="C11" t="n">
-        <v>342.638740245202</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="D11" t="n">
-        <v>342.638740245202</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="E11" t="n">
         <v>342.638740245202</v>
       </c>
       <c r="F11" t="n">
-        <v>177.8451945328117</v>
+        <v>342.638740245202</v>
       </c>
       <c r="G11" t="n">
         <v>177.8451945328117</v>
       </c>
       <c r="H11" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="I11" t="n">
         <v>13.05164882042132</v>
@@ -5050,13 +5050,13 @@
         <v>124.0452799600029</v>
       </c>
       <c r="M11" t="n">
-        <v>253.4208786030111</v>
+        <v>285.5594341127166</v>
       </c>
       <c r="N11" t="n">
-        <v>390.5187559122634</v>
+        <v>422.657311421969</v>
       </c>
       <c r="O11" t="n">
-        <v>503.7073750954046</v>
+        <v>535.8459306051102</v>
       </c>
       <c r="P11" t="n">
         <v>652.5824410210658</v>
@@ -5080,13 +5080,13 @@
         <v>652.5824410210658</v>
       </c>
       <c r="W11" t="n">
+        <v>652.5824410210658</v>
+      </c>
+      <c r="X11" t="n">
+        <v>652.5824410210658</v>
+      </c>
+      <c r="Y11" t="n">
         <v>487.7888953086755</v>
-      </c>
-      <c r="X11" t="n">
-        <v>487.7888953086755</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>342.638740245202</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.05164882042132</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="C12" t="n">
-        <v>13.05164882042132</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="D12" t="n">
-        <v>13.05164882042132</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="E12" t="n">
         <v>13.05164882042132</v>
@@ -5123,7 +5123,7 @@
         <v>13.05164882042132</v>
       </c>
       <c r="K12" t="n">
-        <v>47.11733086470785</v>
+        <v>47.11733086470775</v>
       </c>
       <c r="L12" t="n">
         <v>149.4363445488148</v>
@@ -5147,19 +5147,19 @@
         <v>652.5824410210658</v>
       </c>
       <c r="S12" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="T12" t="n">
-        <v>342.638740245202</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="U12" t="n">
-        <v>342.638740245202</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="V12" t="n">
         <v>342.638740245202</v>
       </c>
       <c r="W12" t="n">
-        <v>342.638740245202</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="X12" t="n">
         <v>177.8451945328117</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="C13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="D13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="E13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="F13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="G13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="H13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="I13" t="n">
-        <v>72.42538894330387</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="J13" t="n">
-        <v>13.05164882042132</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="K13" t="n">
-        <v>46.67900880994397</v>
+        <v>200.4507589314309</v>
       </c>
       <c r="L13" t="n">
-        <v>142.7976980100844</v>
+        <v>296.5694481315713</v>
       </c>
       <c r="M13" t="n">
-        <v>252.737268586306</v>
+        <v>406.5090187077929</v>
       </c>
       <c r="N13" t="n">
-        <v>368.0788581608107</v>
+        <v>521.8506082822976</v>
       </c>
       <c r="O13" t="n">
-        <v>452.6178383558429</v>
+        <v>606.3895884773299</v>
       </c>
       <c r="P13" t="n">
-        <v>498.810690899579</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="Q13" t="n">
-        <v>443.8360922108024</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="R13" t="n">
-        <v>377.3307587970086</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="S13" t="n">
-        <v>377.3307587970086</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="T13" t="n">
-        <v>377.3307587970086</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="U13" t="n">
-        <v>377.3307587970086</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="V13" t="n">
-        <v>212.5372130846182</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="W13" t="n">
-        <v>212.5372130846182</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="X13" t="n">
-        <v>212.5372130846182</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.5372130846182</v>
+        <v>166.8233989419082</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.7888953086755</v>
+        <v>84.31667537192948</v>
       </c>
       <c r="C14" t="n">
-        <v>487.7888953086755</v>
+        <v>84.31667537192948</v>
       </c>
       <c r="D14" t="n">
-        <v>487.7888953086755</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="E14" t="n">
-        <v>487.7888953086755</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="F14" t="n">
-        <v>342.638740245202</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="G14" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="H14" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="I14" t="n">
         <v>13.05164882042132</v>
@@ -5281,19 +5281,19 @@
         <v>13.05164882042132</v>
       </c>
       <c r="K14" t="n">
-        <v>42.49636115843816</v>
+        <v>136.8587803704697</v>
       </c>
       <c r="L14" t="n">
-        <v>124.0452799600029</v>
+        <v>218.4076991720344</v>
       </c>
       <c r="M14" t="n">
-        <v>253.4208786030111</v>
+        <v>347.7832978150426</v>
       </c>
       <c r="N14" t="n">
-        <v>414.9350327557248</v>
+        <v>484.8811751242949</v>
       </c>
       <c r="O14" t="n">
-        <v>528.123651938866</v>
+        <v>598.0697943074362</v>
       </c>
       <c r="P14" t="n">
         <v>652.5824410210658</v>
@@ -5302,28 +5302,28 @@
         <v>652.5824410210658</v>
       </c>
       <c r="R14" t="n">
-        <v>652.5824410210658</v>
+        <v>578.6973125091006</v>
       </c>
       <c r="S14" t="n">
-        <v>487.7888953086755</v>
+        <v>578.6973125091006</v>
       </c>
       <c r="T14" t="n">
-        <v>487.7888953086755</v>
+        <v>578.6973125091006</v>
       </c>
       <c r="U14" t="n">
-        <v>487.7888953086755</v>
+        <v>413.9037667967102</v>
       </c>
       <c r="V14" t="n">
-        <v>487.7888953086755</v>
+        <v>413.9037667967102</v>
       </c>
       <c r="W14" t="n">
-        <v>487.7888953086755</v>
+        <v>249.1102210843198</v>
       </c>
       <c r="X14" t="n">
-        <v>487.7888953086755</v>
+        <v>249.1102210843198</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.7888953086755</v>
+        <v>249.1102210843198</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.05164882042132</v>
+        <v>87.15018479560274</v>
       </c>
       <c r="C15" t="n">
-        <v>13.05164882042132</v>
+        <v>87.15018479560274</v>
       </c>
       <c r="D15" t="n">
         <v>13.05164882042132</v>
@@ -5369,7 +5369,7 @@
         <v>292.4531866122409</v>
       </c>
       <c r="N15" t="n">
-        <v>453.9673407649547</v>
+        <v>453.9673407649548</v>
       </c>
       <c r="O15" t="n">
         <v>577.2353427476943</v>
@@ -5381,28 +5381,28 @@
         <v>652.5824410210658</v>
       </c>
       <c r="R15" t="n">
-        <v>652.5824410210658</v>
+        <v>581.5308219327738</v>
       </c>
       <c r="S15" t="n">
-        <v>487.7888953086755</v>
+        <v>416.7372762203835</v>
       </c>
       <c r="T15" t="n">
-        <v>487.7888953086755</v>
+        <v>416.7372762203835</v>
       </c>
       <c r="U15" t="n">
-        <v>322.9953495962851</v>
+        <v>416.7372762203835</v>
       </c>
       <c r="V15" t="n">
-        <v>322.9953495962851</v>
+        <v>416.7372762203835</v>
       </c>
       <c r="W15" t="n">
-        <v>158.2018038838947</v>
+        <v>251.9437305079931</v>
       </c>
       <c r="X15" t="n">
-        <v>13.05164882042132</v>
+        <v>87.15018479560274</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.05164882042132</v>
+        <v>87.15018479560274</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05164882042132</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05164882042132</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05164882042132</v>
+        <v>187.368003519804</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05164882042132</v>
+        <v>187.368003519804</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05164882042132</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="G16" t="n">
         <v>13.05164882042132</v>
@@ -5466,22 +5466,22 @@
         <v>498.810690899579</v>
       </c>
       <c r="T16" t="n">
+        <v>498.810690899579</v>
+      </c>
+      <c r="U16" t="n">
+        <v>498.810690899579</v>
+      </c>
+      <c r="V16" t="n">
+        <v>498.810690899579</v>
+      </c>
+      <c r="W16" t="n">
         <v>334.0171451871886</v>
       </c>
-      <c r="U16" t="n">
+      <c r="X16" t="n">
         <v>334.0171451871886</v>
       </c>
-      <c r="V16" t="n">
-        <v>177.8451945328117</v>
-      </c>
-      <c r="W16" t="n">
-        <v>177.8451945328117</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13.05164882042132</v>
-      </c>
       <c r="Y16" t="n">
-        <v>13.05164882042132</v>
+        <v>334.0171451871886</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>487.7888953086755</v>
+      </c>
+      <c r="C17" t="n">
+        <v>487.7888953086755</v>
+      </c>
+      <c r="D17" t="n">
+        <v>487.7888953086755</v>
+      </c>
+      <c r="E17" t="n">
         <v>322.9953495962851</v>
       </c>
-      <c r="C17" t="n">
+      <c r="F17" t="n">
         <v>322.9953495962851</v>
       </c>
-      <c r="D17" t="n">
-        <v>322.9953495962851</v>
-      </c>
-      <c r="E17" t="n">
-        <v>177.8451945328117</v>
-      </c>
-      <c r="F17" t="n">
-        <v>177.8451945328117</v>
-      </c>
       <c r="G17" t="n">
-        <v>177.8451945328117</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05164882042132</v>
+        <v>158.2018038838947</v>
       </c>
       <c r="I17" t="n">
         <v>13.05164882042132</v>
@@ -5521,10 +5521,10 @@
         <v>129.3195222019053</v>
       </c>
       <c r="L17" t="n">
-        <v>210.86844100347</v>
+        <v>218.4076991720344</v>
       </c>
       <c r="M17" t="n">
-        <v>340.2440396464782</v>
+        <v>347.7832978150426</v>
       </c>
       <c r="N17" t="n">
         <v>484.8811751242949</v>
@@ -5542,25 +5542,25 @@
         <v>652.5824410210658</v>
       </c>
       <c r="S17" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="T17" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="U17" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="V17" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="W17" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="X17" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="Y17" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>173.8317650593896</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="C18" t="n">
-        <v>173.8317650593896</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="D18" t="n">
         <v>13.05164882042132</v>
@@ -5597,7 +5597,7 @@
         <v>13.05164882042132</v>
       </c>
       <c r="K18" t="n">
-        <v>47.11733086470784</v>
+        <v>47.11733086470781</v>
       </c>
       <c r="L18" t="n">
         <v>149.4363445488148</v>
@@ -5606,7 +5606,7 @@
         <v>292.453186612241</v>
       </c>
       <c r="N18" t="n">
-        <v>453.9673407649548</v>
+        <v>453.9673407649549</v>
       </c>
       <c r="O18" t="n">
         <v>577.2353427476943</v>
@@ -5618,28 +5618,28 @@
         <v>652.5824410210658</v>
       </c>
       <c r="R18" t="n">
-        <v>581.5308219327738</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="S18" t="n">
-        <v>581.5308219327738</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="T18" t="n">
-        <v>581.5308219327738</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="U18" t="n">
-        <v>581.5308219327738</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="V18" t="n">
-        <v>581.5308219327738</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="W18" t="n">
-        <v>416.7372762203835</v>
+        <v>342.638740245202</v>
       </c>
       <c r="X18" t="n">
-        <v>251.9437305079931</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="Y18" t="n">
-        <v>251.9437305079931</v>
+        <v>177.8451945328117</v>
       </c>
     </row>
     <row r="19">
@@ -5694,31 +5694,31 @@
         <v>498.810690899579</v>
       </c>
       <c r="Q19" t="n">
-        <v>443.8360922108024</v>
+        <v>498.810690899579</v>
       </c>
       <c r="R19" t="n">
-        <v>443.8360922108024</v>
+        <v>498.810690899579</v>
       </c>
       <c r="S19" t="n">
-        <v>279.042546498412</v>
+        <v>498.810690899579</v>
       </c>
       <c r="T19" t="n">
-        <v>279.042546498412</v>
+        <v>498.810690899579</v>
       </c>
       <c r="U19" t="n">
+        <v>498.810690899579</v>
+      </c>
+      <c r="V19" t="n">
+        <v>498.810690899579</v>
+      </c>
+      <c r="W19" t="n">
+        <v>342.638740245202</v>
+      </c>
+      <c r="X19" t="n">
         <v>177.8451945328117</v>
       </c>
-      <c r="V19" t="n">
+      <c r="Y19" t="n">
         <v>177.8451945328117</v>
-      </c>
-      <c r="W19" t="n">
-        <v>13.05164882042132</v>
-      </c>
-      <c r="X19" t="n">
-        <v>13.05164882042132</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>13.05164882042132</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>413.9037667967102</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="C20" t="n">
-        <v>413.9037667967102</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="D20" t="n">
-        <v>342.638740245202</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="E20" t="n">
-        <v>342.638740245202</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="F20" t="n">
         <v>177.8451945328117</v>
@@ -5758,46 +5758,46 @@
         <v>42.49636115843816</v>
       </c>
       <c r="L20" t="n">
-        <v>204.0105153111519</v>
+        <v>124.0452799600029</v>
       </c>
       <c r="M20" t="n">
-        <v>333.3861139541601</v>
+        <v>253.4208786030111</v>
       </c>
       <c r="N20" t="n">
-        <v>470.4839912634125</v>
+        <v>390.5187559122634</v>
       </c>
       <c r="O20" t="n">
-        <v>583.6726104465537</v>
+        <v>503.7073750954046</v>
       </c>
       <c r="P20" t="n">
-        <v>652.5824410210658</v>
+        <v>558.2200218090344</v>
       </c>
       <c r="Q20" t="n">
         <v>652.5824410210658</v>
       </c>
       <c r="R20" t="n">
-        <v>578.6973125091006</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="S20" t="n">
-        <v>413.9037667967102</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="T20" t="n">
-        <v>413.9037667967102</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="U20" t="n">
-        <v>413.9037667967102</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="V20" t="n">
-        <v>413.9037667967102</v>
+        <v>507.4322859575924</v>
       </c>
       <c r="W20" t="n">
-        <v>413.9037667967102</v>
+        <v>342.638740245202</v>
       </c>
       <c r="X20" t="n">
-        <v>413.9037667967102</v>
+        <v>342.638740245202</v>
       </c>
       <c r="Y20" t="n">
-        <v>413.9037667967102</v>
+        <v>177.8451945328117</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.05164882042132</v>
+        <v>338.2729108155676</v>
       </c>
       <c r="C21" t="n">
-        <v>13.05164882042132</v>
+        <v>173.4793651031772</v>
       </c>
       <c r="D21" t="n">
-        <v>13.05164882042132</v>
+        <v>173.4793651031772</v>
       </c>
       <c r="E21" t="n">
-        <v>13.05164882042132</v>
+        <v>173.4793651031772</v>
       </c>
       <c r="F21" t="n">
         <v>13.05164882042132</v>
@@ -5834,16 +5834,16 @@
         <v>13.05164882042132</v>
       </c>
       <c r="K21" t="n">
-        <v>47.11733086470775</v>
+        <v>47.11733086470781</v>
       </c>
       <c r="L21" t="n">
         <v>149.4363445488148</v>
       </c>
       <c r="M21" t="n">
-        <v>292.4531866122409</v>
+        <v>292.453186612241</v>
       </c>
       <c r="N21" t="n">
-        <v>453.9673407649548</v>
+        <v>453.9673407649549</v>
       </c>
       <c r="O21" t="n">
         <v>577.2353427476943</v>
@@ -5855,28 +5855,28 @@
         <v>652.5824410210658</v>
       </c>
       <c r="R21" t="n">
-        <v>581.5308219327738</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="S21" t="n">
-        <v>416.7372762203835</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="T21" t="n">
-        <v>416.7372762203835</v>
+        <v>503.0664565279579</v>
       </c>
       <c r="U21" t="n">
-        <v>251.9437305079931</v>
+        <v>503.0664565279579</v>
       </c>
       <c r="V21" t="n">
-        <v>87.15018479560274</v>
+        <v>338.2729108155676</v>
       </c>
       <c r="W21" t="n">
-        <v>87.15018479560274</v>
+        <v>338.2729108155676</v>
       </c>
       <c r="X21" t="n">
-        <v>13.05164882042132</v>
+        <v>338.2729108155676</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.05164882042132</v>
+        <v>338.2729108155676</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.2235994747982</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="C22" t="n">
-        <v>156.1588621661031</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="D22" t="n">
-        <v>156.1588621661031</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="E22" t="n">
         <v>13.05164882042132</v>
@@ -5937,25 +5937,25 @@
         <v>498.810690899579</v>
       </c>
       <c r="S22" t="n">
-        <v>334.0171451871886</v>
+        <v>342.638740245202</v>
       </c>
       <c r="T22" t="n">
-        <v>334.0171451871886</v>
+        <v>342.638740245202</v>
       </c>
       <c r="U22" t="n">
-        <v>169.2235994747982</v>
+        <v>342.638740245202</v>
       </c>
       <c r="V22" t="n">
-        <v>169.2235994747982</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="W22" t="n">
-        <v>169.2235994747982</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="X22" t="n">
-        <v>169.2235994747982</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.2235994747982</v>
+        <v>13.05164882042132</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>685.2774804904041</v>
+      </c>
+      <c r="C23" t="n">
+        <v>685.2774804904041</v>
+      </c>
+      <c r="D23" t="n">
+        <v>685.2774804904041</v>
+      </c>
+      <c r="E23" t="n">
+        <v>685.2774804904041</v>
+      </c>
+      <c r="F23" t="n">
         <v>355.6903890656234</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
         <v>355.6903890656234</v>
-      </c>
-      <c r="D23" t="n">
-        <v>355.6903890656234</v>
-      </c>
-      <c r="E23" t="n">
-        <v>26.10329764084263</v>
-      </c>
-      <c r="F23" t="n">
-        <v>26.10329764084263</v>
-      </c>
-      <c r="G23" t="n">
-        <v>26.10329764084263</v>
       </c>
       <c r="H23" t="n">
         <v>26.10329764084263</v>
@@ -5989,19 +5989,19 @@
         <v>26.10329764084263</v>
       </c>
       <c r="J23" t="n">
-        <v>26.10329764084263</v>
+        <v>112.9264586843098</v>
       </c>
       <c r="K23" t="n">
-        <v>263.4937750515131</v>
+        <v>350.3169360949802</v>
       </c>
       <c r="L23" t="n">
-        <v>586.5220833569406</v>
+        <v>475.2200200746387</v>
       </c>
       <c r="M23" t="n">
-        <v>715.8976819999488</v>
+        <v>604.5956187176469</v>
       </c>
       <c r="N23" t="n">
-        <v>1038.925990305376</v>
+        <v>927.6239270230744</v>
       </c>
       <c r="O23" t="n">
         <v>1250.652235328502</v>
@@ -6013,28 +6013,28 @@
         <v>1305.164882042132</v>
       </c>
       <c r="R23" t="n">
-        <v>1305.164882042132</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="S23" t="n">
-        <v>1119.957031964122</v>
+        <v>1046.071903452156</v>
       </c>
       <c r="T23" t="n">
-        <v>903.8131235969347</v>
+        <v>1046.071903452156</v>
       </c>
       <c r="U23" t="n">
-        <v>903.8131235969347</v>
+        <v>1046.071903452156</v>
       </c>
       <c r="V23" t="n">
-        <v>903.8131235969347</v>
+        <v>1014.864571915185</v>
       </c>
       <c r="W23" t="n">
-        <v>903.8131235969347</v>
+        <v>1014.864571915185</v>
       </c>
       <c r="X23" t="n">
+        <v>1014.864571915185</v>
+      </c>
+      <c r="Y23" t="n">
         <v>685.2774804904041</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>355.6903890656234</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>215.5155719078789</v>
+        <v>138.8451838958877</v>
       </c>
       <c r="C24" t="n">
-        <v>26.10329764084263</v>
+        <v>138.8451838958877</v>
       </c>
       <c r="D24" t="n">
-        <v>26.10329764084263</v>
+        <v>138.8451838958877</v>
       </c>
       <c r="E24" t="n">
-        <v>26.10329764084263</v>
+        <v>138.8451838958877</v>
       </c>
       <c r="F24" t="n">
-        <v>26.10329764084263</v>
+        <v>138.8451838958877</v>
       </c>
       <c r="G24" t="n">
         <v>26.10329764084263</v>
@@ -6077,13 +6077,13 @@
         <v>377.18189364285</v>
       </c>
       <c r="M24" t="n">
-        <v>700.2102019482775</v>
+        <v>520.198735706276</v>
       </c>
       <c r="N24" t="n">
-        <v>864.590821058439</v>
+        <v>778.0146446380369</v>
       </c>
       <c r="O24" t="n">
-        <v>987.8588230411785</v>
+        <v>901.2826466207764</v>
       </c>
       <c r="P24" t="n">
         <v>1180.92998023204</v>
@@ -6098,22 +6098,22 @@
         <v>1060.041701310651</v>
       </c>
       <c r="T24" t="n">
-        <v>1060.041701310651</v>
+        <v>847.1210015754583</v>
       </c>
       <c r="U24" t="n">
-        <v>820.4862947921189</v>
+        <v>607.565595056926</v>
       </c>
       <c r="V24" t="n">
-        <v>577.406576695753</v>
+        <v>364.4858769605601</v>
       </c>
       <c r="W24" t="n">
-        <v>577.406576695753</v>
+        <v>364.4858769605601</v>
       </c>
       <c r="X24" t="n">
-        <v>357.8985823124493</v>
+        <v>364.4858769605601</v>
       </c>
       <c r="Y24" t="n">
-        <v>215.5155719078789</v>
+        <v>138.8451838958877</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>194.2418642791986</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="C25" t="n">
-        <v>26.10329764084263</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="D25" t="n">
-        <v>26.10329764084263</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="E25" t="n">
-        <v>26.10329764084263</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="F25" t="n">
-        <v>26.10329764084263</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="G25" t="n">
-        <v>26.10329764084263</v>
+        <v>185.7957405222781</v>
       </c>
       <c r="H25" t="n">
         <v>26.10329764084263</v>
@@ -6180,19 +6180,19 @@
         <v>511.8623397200003</v>
       </c>
       <c r="U25" t="n">
-        <v>487.4850027532747</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="V25" t="n">
-        <v>487.4850027532747</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="W25" t="n">
-        <v>194.2418642791986</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="X25" t="n">
-        <v>194.2418642791986</v>
+        <v>355.3224815176408</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.2418642791986</v>
+        <v>355.3224815176408</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.10329764084263</v>
+        <v>361.4277601936009</v>
       </c>
       <c r="C26" t="n">
-        <v>26.10329764084263</v>
+        <v>361.4277601936009</v>
       </c>
       <c r="D26" t="n">
-        <v>26.10329764084263</v>
+        <v>361.4277601936009</v>
       </c>
       <c r="E26" t="n">
-        <v>26.10329764084263</v>
+        <v>355.6903890656234</v>
       </c>
       <c r="F26" t="n">
-        <v>26.10329764084263</v>
+        <v>355.6903890656234</v>
       </c>
       <c r="G26" t="n">
         <v>26.10329764084263</v>
@@ -6229,19 +6229,19 @@
         <v>26.10329764084263</v>
       </c>
       <c r="K26" t="n">
-        <v>168.3786912290782</v>
+        <v>263.4937750515131</v>
       </c>
       <c r="L26" t="n">
-        <v>491.4069995345058</v>
+        <v>345.0426938530778</v>
       </c>
       <c r="M26" t="n">
-        <v>814.4353078399333</v>
+        <v>474.418292496086</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.463616145361</v>
+        <v>721.1836197569048</v>
       </c>
       <c r="O26" t="n">
-        <v>1250.652235328502</v>
+        <v>1044.211928062332</v>
       </c>
       <c r="P26" t="n">
         <v>1305.164882042132</v>
@@ -6250,28 +6250,28 @@
         <v>1305.164882042132</v>
       </c>
       <c r="R26" t="n">
-        <v>1305.164882042132</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="S26" t="n">
-        <v>1119.957031964122</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="T26" t="n">
-        <v>903.8131235969347</v>
+        <v>1015.13584516298</v>
       </c>
       <c r="U26" t="n">
-        <v>651.2924116424913</v>
+        <v>1015.13584516298</v>
       </c>
       <c r="V26" t="n">
-        <v>355.6903890656234</v>
+        <v>691.0148516183816</v>
       </c>
       <c r="W26" t="n">
-        <v>355.6903890656234</v>
+        <v>691.0148516183816</v>
       </c>
       <c r="X26" t="n">
-        <v>26.10329764084263</v>
+        <v>691.0148516183816</v>
       </c>
       <c r="Y26" t="n">
-        <v>26.10329764084263</v>
+        <v>361.4277601936009</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.10329764084263</v>
+        <v>233.4685266972422</v>
       </c>
       <c r="C27" t="n">
-        <v>26.10329764084263</v>
+        <v>44.05625243020594</v>
       </c>
       <c r="D27" t="n">
         <v>26.10329764084263</v>
@@ -6305,52 +6305,52 @@
         <v>26.10329764084263</v>
       </c>
       <c r="J27" t="n">
-        <v>26.10329764084263</v>
+        <v>71.13745906614699</v>
       </c>
       <c r="K27" t="n">
-        <v>60.16897968512917</v>
+        <v>112.761299025744</v>
       </c>
       <c r="L27" t="n">
-        <v>290.6057172224478</v>
+        <v>215.080312709851</v>
       </c>
       <c r="M27" t="n">
-        <v>613.6340255278753</v>
+        <v>538.1086210152786</v>
       </c>
       <c r="N27" t="n">
-        <v>778.0146446380369</v>
+        <v>702.4892401254401</v>
       </c>
       <c r="O27" t="n">
-        <v>901.2826466207764</v>
+        <v>1025.517548430868</v>
       </c>
       <c r="P27" t="n">
-        <v>1180.92998023204</v>
+        <v>1305.164882042132</v>
       </c>
       <c r="Q27" t="n">
         <v>1305.164882042132</v>
       </c>
       <c r="R27" t="n">
-        <v>1234.11326295384</v>
+        <v>1305.164882042132</v>
       </c>
       <c r="S27" t="n">
-        <v>1060.041701310651</v>
+        <v>1131.093320398943</v>
       </c>
       <c r="T27" t="n">
-        <v>847.1210015754583</v>
+        <v>918.1726206637505</v>
       </c>
       <c r="U27" t="n">
-        <v>607.565595056926</v>
+        <v>678.6172141452182</v>
       </c>
       <c r="V27" t="n">
-        <v>364.4858769605601</v>
+        <v>678.6172141452182</v>
       </c>
       <c r="W27" t="n">
-        <v>95.08730769085139</v>
+        <v>678.6172141452182</v>
       </c>
       <c r="X27" t="n">
-        <v>26.10329764084263</v>
+        <v>459.1092197619146</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.10329764084263</v>
+        <v>233.4685266972422</v>
       </c>
     </row>
     <row r="28">
@@ -6405,16 +6405,16 @@
         <v>511.8623397200003</v>
       </c>
       <c r="Q28" t="n">
-        <v>483.6307241729719</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="R28" t="n">
-        <v>317.6276820163409</v>
+        <v>470.8868973384918</v>
       </c>
       <c r="S28" t="n">
-        <v>317.6276820163409</v>
+        <v>248.3732682461333</v>
       </c>
       <c r="T28" t="n">
-        <v>317.6276820163409</v>
+        <v>26.10329764084263</v>
       </c>
       <c r="U28" t="n">
         <v>26.10329764084263</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>978.7590415757231</v>
+        <v>685.2774804904041</v>
       </c>
       <c r="C29" t="n">
         <v>685.2774804904041</v>
@@ -6466,49 +6466,49 @@
         <v>112.9264586843098</v>
       </c>
       <c r="K29" t="n">
-        <v>147.8688149590837</v>
+        <v>350.3169360949802</v>
       </c>
       <c r="L29" t="n">
-        <v>470.8971232645113</v>
+        <v>431.8658548965449</v>
       </c>
       <c r="M29" t="n">
-        <v>793.9254315699388</v>
+        <v>561.241453539553</v>
       </c>
       <c r="N29" t="n">
-        <v>931.0233088791912</v>
+        <v>698.3393308488054</v>
       </c>
       <c r="O29" t="n">
-        <v>1044.211928062332</v>
+        <v>925.8416386550682</v>
       </c>
       <c r="P29" t="n">
-        <v>1305.164882042132</v>
+        <v>1186.794592634868</v>
       </c>
       <c r="Q29" t="n">
         <v>1305.164882042132</v>
       </c>
       <c r="R29" t="n">
-        <v>1231.279753530167</v>
+        <v>1305.164882042132</v>
       </c>
       <c r="S29" t="n">
-        <v>1231.279753530167</v>
+        <v>1119.957031964122</v>
       </c>
       <c r="T29" t="n">
-        <v>1231.279753530167</v>
+        <v>903.8131235969347</v>
       </c>
       <c r="U29" t="n">
-        <v>978.7590415757231</v>
+        <v>903.8131235969347</v>
       </c>
       <c r="V29" t="n">
-        <v>978.7590415757231</v>
+        <v>903.8131235969347</v>
       </c>
       <c r="W29" t="n">
-        <v>978.7590415757231</v>
+        <v>903.8131235969347</v>
       </c>
       <c r="X29" t="n">
-        <v>978.7590415757231</v>
+        <v>903.8131235969347</v>
       </c>
       <c r="Y29" t="n">
-        <v>978.7590415757231</v>
+        <v>685.2774804904041</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>26.10329764084263</v>
       </c>
       <c r="J30" t="n">
-        <v>26.10329764084263</v>
+        <v>71.13745906614699</v>
       </c>
       <c r="K30" t="n">
-        <v>60.16897968512917</v>
+        <v>105.2031411104335</v>
       </c>
       <c r="L30" t="n">
-        <v>383.1972879905567</v>
+        <v>207.5221547945405</v>
       </c>
       <c r="M30" t="n">
-        <v>526.2141300539828</v>
+        <v>530.5504630999681</v>
       </c>
       <c r="N30" t="n">
-        <v>778.0146446380369</v>
+        <v>853.5787714053956</v>
       </c>
       <c r="O30" t="n">
-        <v>901.2826466207764</v>
+        <v>1176.607079710823</v>
       </c>
       <c r="P30" t="n">
-        <v>1180.92998023204</v>
+        <v>1305.164882042132</v>
       </c>
       <c r="Q30" t="n">
         <v>1305.164882042132</v>
@@ -6569,25 +6569,25 @@
         <v>1234.11326295384</v>
       </c>
       <c r="S30" t="n">
-        <v>1073.758178796455</v>
+        <v>1060.041701310651</v>
       </c>
       <c r="T30" t="n">
-        <v>860.8374790612615</v>
+        <v>847.1210015754583</v>
       </c>
       <c r="U30" t="n">
-        <v>621.2820725427292</v>
+        <v>694.7057638538092</v>
       </c>
       <c r="V30" t="n">
-        <v>378.2023544463633</v>
+        <v>694.7057638538092</v>
       </c>
       <c r="W30" t="n">
-        <v>378.2023544463633</v>
+        <v>425.3071945841006</v>
       </c>
       <c r="X30" t="n">
-        <v>378.2023544463633</v>
+        <v>425.3071945841006</v>
       </c>
       <c r="Y30" t="n">
-        <v>378.2023544463633</v>
+        <v>199.6665015194282</v>
       </c>
     </row>
     <row r="31">
@@ -6642,25 +6642,25 @@
         <v>511.8623397200003</v>
       </c>
       <c r="Q31" t="n">
-        <v>456.8877410312237</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="R31" t="n">
-        <v>456.8877410312237</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="S31" t="n">
-        <v>250.2643637097745</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="T31" t="n">
-        <v>250.2643637097745</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="U31" t="n">
-        <v>250.2643637097745</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="V31" t="n">
-        <v>250.2643637097745</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="W31" t="n">
-        <v>250.2643637097745</v>
+        <v>218.6192012459242</v>
       </c>
       <c r="X31" t="n">
         <v>26.10329764084263</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26.10329764084263</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="C32" t="n">
-        <v>26.10329764084263</v>
+        <v>901.6926621053858</v>
       </c>
       <c r="D32" t="n">
-        <v>26.10329764084263</v>
+        <v>901.6926621053858</v>
       </c>
       <c r="E32" t="n">
-        <v>26.10329764084263</v>
+        <v>572.1055706806051</v>
       </c>
       <c r="F32" t="n">
-        <v>26.10329764084263</v>
+        <v>572.1055706806051</v>
       </c>
       <c r="G32" t="n">
-        <v>26.10329764084263</v>
+        <v>355.6903890656234</v>
       </c>
       <c r="H32" t="n">
         <v>26.10329764084263</v>
@@ -6700,25 +6700,25 @@
         <v>26.10329764084263</v>
       </c>
       <c r="J32" t="n">
-        <v>26.10329764084263</v>
+        <v>112.9264586843098</v>
       </c>
       <c r="K32" t="n">
-        <v>55.54800997885948</v>
+        <v>142.3711710223266</v>
       </c>
       <c r="L32" t="n">
-        <v>378.576318284287</v>
+        <v>223.9200898238913</v>
       </c>
       <c r="M32" t="n">
-        <v>701.6046265897146</v>
+        <v>353.2956884668995</v>
       </c>
       <c r="N32" t="n">
-        <v>838.7025038989669</v>
+        <v>676.3239967723271</v>
       </c>
       <c r="O32" t="n">
-        <v>1161.730812204395</v>
+        <v>925.8416386550682</v>
       </c>
       <c r="P32" t="n">
-        <v>1216.243458918024</v>
+        <v>1186.794592634868</v>
       </c>
       <c r="Q32" t="n">
         <v>1305.164882042132</v>
@@ -6727,25 +6727,25 @@
         <v>1231.279753530167</v>
       </c>
       <c r="S32" t="n">
-        <v>1046.071903452156</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="T32" t="n">
-        <v>829.9279950849693</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="U32" t="n">
-        <v>577.4072831305259</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="V32" t="n">
-        <v>355.6903890656234</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="W32" t="n">
-        <v>26.10329764084263</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="X32" t="n">
-        <v>26.10329764084263</v>
+        <v>1231.279753530167</v>
       </c>
       <c r="Y32" t="n">
-        <v>26.10329764084263</v>
+        <v>1231.279753530167</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>364.4858769605601</v>
+        <v>376.1606059516062</v>
       </c>
       <c r="C33" t="n">
-        <v>364.4858769605601</v>
+        <v>376.1606059516062</v>
       </c>
       <c r="D33" t="n">
-        <v>203.7057607215918</v>
+        <v>215.3804897126379</v>
       </c>
       <c r="E33" t="n">
-        <v>30.14255684300628</v>
+        <v>215.3804897126379</v>
       </c>
       <c r="F33" t="n">
-        <v>30.14255684300628</v>
+        <v>215.3804897126379</v>
       </c>
       <c r="G33" t="n">
-        <v>26.10329764084263</v>
+        <v>215.3804897126379</v>
       </c>
       <c r="H33" t="n">
-        <v>26.10329764084263</v>
+        <v>98.49032547640985</v>
       </c>
       <c r="I33" t="n">
         <v>26.10329764084263</v>
       </c>
       <c r="J33" t="n">
-        <v>26.10329764084263</v>
+        <v>68.09835607651695</v>
       </c>
       <c r="K33" t="n">
-        <v>60.16897968512917</v>
+        <v>271.8237769691129</v>
       </c>
       <c r="L33" t="n">
-        <v>162.4879933692362</v>
+        <v>594.8520852745405</v>
       </c>
       <c r="M33" t="n">
-        <v>305.5048354326623</v>
+        <v>737.8689273379666</v>
       </c>
       <c r="N33" t="n">
-        <v>628.5331437380898</v>
+        <v>902.2495464481282</v>
       </c>
       <c r="O33" t="n">
-        <v>951.5614520435174</v>
+        <v>1025.517548430868</v>
       </c>
       <c r="P33" t="n">
-        <v>1231.208785654781</v>
+        <v>1305.164882042132</v>
       </c>
       <c r="Q33" t="n">
         <v>1305.164882042132</v>
@@ -6815,16 +6815,16 @@
         <v>607.565595056926</v>
       </c>
       <c r="V33" t="n">
-        <v>364.4858769605601</v>
+        <v>607.565595056926</v>
       </c>
       <c r="W33" t="n">
-        <v>364.4858769605601</v>
+        <v>376.1606059516062</v>
       </c>
       <c r="X33" t="n">
-        <v>364.4858769605601</v>
+        <v>376.1606059516062</v>
       </c>
       <c r="Y33" t="n">
-        <v>364.4858769605601</v>
+        <v>376.1606059516062</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>511.8623397200003</v>
       </c>
       <c r="Q34" t="n">
-        <v>456.8877410312237</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="R34" t="n">
-        <v>290.8846988745927</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="S34" t="n">
-        <v>290.8846988745927</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="T34" t="n">
-        <v>290.8846988745927</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="U34" t="n">
-        <v>26.10329764084263</v>
+        <v>511.8623397200003</v>
       </c>
       <c r="V34" t="n">
-        <v>26.10329764084263</v>
+        <v>264.2774758973236</v>
       </c>
       <c r="W34" t="n">
         <v>26.10329764084263</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>413.9037667967103</v>
+      </c>
+      <c r="C35" t="n">
+        <v>413.9037667967103</v>
+      </c>
+      <c r="D35" t="n">
+        <v>342.6387402452021</v>
+      </c>
+      <c r="E35" t="n">
         <v>177.8451945328117</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>177.8451945328117</v>
-      </c>
-      <c r="D35" t="n">
-        <v>177.8451945328117</v>
-      </c>
-      <c r="E35" t="n">
-        <v>13.05164882042132</v>
-      </c>
-      <c r="F35" t="n">
-        <v>13.05164882042132</v>
       </c>
       <c r="G35" t="n">
         <v>13.05164882042132</v>
@@ -6937,52 +6937,52 @@
         <v>13.05164882042132</v>
       </c>
       <c r="J35" t="n">
-        <v>13.05164882042132</v>
+        <v>99.87480986388844</v>
       </c>
       <c r="K35" t="n">
-        <v>136.8587803704697</v>
+        <v>129.3195222019053</v>
       </c>
       <c r="L35" t="n">
-        <v>218.4076991720344</v>
+        <v>210.86844100347</v>
       </c>
       <c r="M35" t="n">
-        <v>347.7832978150426</v>
+        <v>340.2440396464782</v>
       </c>
       <c r="N35" t="n">
-        <v>484.8811751242949</v>
+        <v>477.3419169557305</v>
       </c>
       <c r="O35" t="n">
-        <v>598.0697943074362</v>
+        <v>590.5305361388718</v>
       </c>
       <c r="P35" t="n">
-        <v>652.5824410210658</v>
+        <v>645.0431828525014</v>
       </c>
       <c r="Q35" t="n">
-        <v>652.5824410210658</v>
+        <v>652.582441021066</v>
       </c>
       <c r="R35" t="n">
-        <v>652.5824410210658</v>
+        <v>578.6973125091007</v>
       </c>
       <c r="S35" t="n">
-        <v>507.4322859575924</v>
+        <v>578.6973125091007</v>
       </c>
       <c r="T35" t="n">
-        <v>507.4322859575924</v>
+        <v>578.6973125091007</v>
       </c>
       <c r="U35" t="n">
-        <v>342.638740245202</v>
+        <v>578.6973125091007</v>
       </c>
       <c r="V35" t="n">
-        <v>177.8451945328117</v>
+        <v>578.6973125091007</v>
       </c>
       <c r="W35" t="n">
-        <v>177.8451945328117</v>
+        <v>578.6973125091007</v>
       </c>
       <c r="X35" t="n">
-        <v>177.8451945328117</v>
+        <v>578.6973125091007</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.8451945328117</v>
+        <v>578.6973125091007</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>338.6253107717799</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="C36" t="n">
-        <v>173.8317650593896</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="D36" t="n">
-        <v>13.05164882042132</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="E36" t="n">
-        <v>13.05164882042132</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="F36" t="n">
-        <v>13.05164882042132</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="G36" t="n">
-        <v>13.05164882042132</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="H36" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="I36" t="n">
         <v>13.05164882042132</v>
       </c>
       <c r="J36" t="n">
-        <v>13.05164882042132</v>
+        <v>13.05164882042148</v>
       </c>
       <c r="K36" t="n">
-        <v>47.11733086470784</v>
+        <v>47.11733086470802</v>
       </c>
       <c r="L36" t="n">
-        <v>149.4363445488148</v>
+        <v>149.436344548815</v>
       </c>
       <c r="M36" t="n">
-        <v>292.453186612241</v>
+        <v>292.4531866122411</v>
       </c>
       <c r="N36" t="n">
-        <v>453.9673407649548</v>
+        <v>453.9673407649549</v>
       </c>
       <c r="O36" t="n">
-        <v>577.2353427476943</v>
+        <v>577.2353427476944</v>
       </c>
       <c r="P36" t="n">
-        <v>652.5824410210658</v>
+        <v>652.582441021066</v>
       </c>
       <c r="Q36" t="n">
-        <v>652.5824410210658</v>
+        <v>652.582441021066</v>
       </c>
       <c r="R36" t="n">
-        <v>652.5824410210658</v>
+        <v>652.582441021066</v>
       </c>
       <c r="S36" t="n">
-        <v>487.7888953086755</v>
+        <v>652.582441021066</v>
       </c>
       <c r="T36" t="n">
-        <v>487.7888953086755</v>
+        <v>487.7888953086756</v>
       </c>
       <c r="U36" t="n">
-        <v>487.7888953086755</v>
+        <v>487.7888953086756</v>
       </c>
       <c r="V36" t="n">
-        <v>338.6253107717799</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="W36" t="n">
-        <v>338.6253107717799</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="X36" t="n">
-        <v>338.6253107717799</v>
+        <v>351.5285433293827</v>
       </c>
       <c r="Y36" t="n">
-        <v>338.6253107717799</v>
+        <v>351.5285433293827</v>
       </c>
     </row>
     <row r="37">
@@ -7116,31 +7116,31 @@
         <v>498.810690899579</v>
       </c>
       <c r="Q37" t="n">
-        <v>443.8360922108024</v>
+        <v>498.810690899579</v>
       </c>
       <c r="R37" t="n">
-        <v>443.8360922108024</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="S37" t="n">
-        <v>443.8360922108024</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="T37" t="n">
-        <v>443.8360922108024</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="U37" t="n">
-        <v>279.042546498412</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="V37" t="n">
-        <v>177.8451945328117</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="W37" t="n">
-        <v>177.8451945328117</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="X37" t="n">
-        <v>177.8451945328117</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>507.4322859575924</v>
+        <v>342.638740245202</v>
       </c>
       <c r="C38" t="n">
         <v>342.638740245202</v>
       </c>
       <c r="D38" t="n">
-        <v>342.638740245202</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="E38" t="n">
-        <v>342.638740245202</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="F38" t="n">
-        <v>177.8451945328117</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="G38" t="n">
         <v>13.05164882042132</v>
@@ -7174,25 +7174,25 @@
         <v>13.05164882042132</v>
       </c>
       <c r="J38" t="n">
-        <v>13.05164882042132</v>
+        <v>99.87480986388844</v>
       </c>
       <c r="K38" t="n">
-        <v>42.49636115843816</v>
+        <v>129.3195222019053</v>
       </c>
       <c r="L38" t="n">
-        <v>124.0452799600029</v>
+        <v>210.86844100347</v>
       </c>
       <c r="M38" t="n">
-        <v>253.4208786030111</v>
+        <v>340.2440396464782</v>
       </c>
       <c r="N38" t="n">
-        <v>390.5187559122634</v>
+        <v>477.3419169557305</v>
       </c>
       <c r="O38" t="n">
-        <v>503.7073750954046</v>
+        <v>590.5305361388718</v>
       </c>
       <c r="P38" t="n">
-        <v>558.2200218090344</v>
+        <v>645.0431828525014</v>
       </c>
       <c r="Q38" t="n">
         <v>652.5824410210658</v>
@@ -7210,16 +7210,16 @@
         <v>652.5824410210658</v>
       </c>
       <c r="V38" t="n">
-        <v>652.5824410210658</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="W38" t="n">
-        <v>652.5824410210658</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="X38" t="n">
-        <v>652.5824410210658</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="Y38" t="n">
-        <v>652.5824410210658</v>
+        <v>342.638740245202</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>338.6253107717799</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="C39" t="n">
-        <v>173.8317650593896</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="D39" t="n">
-        <v>13.05164882042132</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="E39" t="n">
-        <v>13.05164882042132</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="F39" t="n">
-        <v>13.05164882042132</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="G39" t="n">
-        <v>13.05164882042132</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="H39" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="I39" t="n">
         <v>13.05164882042132</v>
@@ -7265,7 +7265,7 @@
         <v>292.4531866122409</v>
       </c>
       <c r="N39" t="n">
-        <v>453.9673407649548</v>
+        <v>453.9673407649547</v>
       </c>
       <c r="O39" t="n">
         <v>577.2353427476943</v>
@@ -7280,25 +7280,25 @@
         <v>652.5824410210658</v>
       </c>
       <c r="S39" t="n">
-        <v>652.5824410210658</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="T39" t="n">
-        <v>652.5824410210658</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="U39" t="n">
-        <v>652.5824410210658</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="V39" t="n">
-        <v>652.5824410210658</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="W39" t="n">
-        <v>652.5824410210658</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="X39" t="n">
-        <v>652.5824410210658</v>
+        <v>202.3288408922166</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.7888953086755</v>
+        <v>202.3288408922166</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>531.3208688362182</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="C40" t="n">
-        <v>366.5273231238278</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="D40" t="n">
-        <v>366.5273231238278</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="E40" t="n">
-        <v>366.5273231238278</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="F40" t="n">
-        <v>226.1971390647908</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="G40" t="n">
-        <v>226.1971390647908</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="H40" t="n">
-        <v>226.1971390647908</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="I40" t="n">
-        <v>226.1971390647908</v>
+        <v>166.8233989419082</v>
       </c>
       <c r="J40" t="n">
         <v>166.8233989419082</v>
@@ -7359,25 +7359,25 @@
         <v>652.5824410210658</v>
       </c>
       <c r="S40" t="n">
-        <v>531.3208688362182</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="T40" t="n">
-        <v>531.3208688362182</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="U40" t="n">
-        <v>531.3208688362182</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3208688362182</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3208688362182</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="X40" t="n">
-        <v>531.3208688362182</v>
+        <v>331.6169446542986</v>
       </c>
       <c r="Y40" t="n">
-        <v>531.3208688362182</v>
+        <v>331.6169446542986</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>413.9037667967102</v>
       </c>
       <c r="D41" t="n">
-        <v>413.9037667967102</v>
+        <v>249.1102210843198</v>
       </c>
       <c r="E41" t="n">
         <v>249.1102210843198</v>
       </c>
       <c r="F41" t="n">
-        <v>249.1102210843198</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="G41" t="n">
-        <v>84.31667537192948</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="H41" t="n">
         <v>13.05164882042132</v>
@@ -7417,19 +7417,19 @@
         <v>42.49636115843816</v>
       </c>
       <c r="L41" t="n">
-        <v>161.8528668188674</v>
+        <v>124.0452799600029</v>
       </c>
       <c r="M41" t="n">
-        <v>323.3670209715812</v>
+        <v>253.4208786030111</v>
       </c>
       <c r="N41" t="n">
-        <v>484.8811751242949</v>
+        <v>390.5187559122634</v>
       </c>
       <c r="O41" t="n">
-        <v>598.0697943074362</v>
+        <v>503.7073750954046</v>
       </c>
       <c r="P41" t="n">
-        <v>652.5824410210658</v>
+        <v>558.2200218090344</v>
       </c>
       <c r="Q41" t="n">
         <v>652.5824410210658</v>
@@ -7444,13 +7444,13 @@
         <v>578.6973125091006</v>
       </c>
       <c r="U41" t="n">
-        <v>413.9037667967102</v>
+        <v>578.6973125091006</v>
       </c>
       <c r="V41" t="n">
-        <v>413.9037667967102</v>
+        <v>578.6973125091006</v>
       </c>
       <c r="W41" t="n">
-        <v>413.9037667967102</v>
+        <v>578.6973125091006</v>
       </c>
       <c r="X41" t="n">
         <v>413.9037667967102</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>652.266158965124</v>
+        <v>250.2322223683789</v>
       </c>
       <c r="C42" t="n">
-        <v>487.4726132527336</v>
+        <v>250.2322223683789</v>
       </c>
       <c r="D42" t="n">
-        <v>487.4726132527336</v>
+        <v>250.2322223683789</v>
       </c>
       <c r="E42" t="n">
-        <v>322.6790675403432</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="F42" t="n">
-        <v>162.2513512575873</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="G42" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="H42" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="I42" t="n">
         <v>13.05164882042132</v>
@@ -7493,13 +7493,13 @@
         <v>13.05164882042132</v>
       </c>
       <c r="K42" t="n">
-        <v>47.11733086470775</v>
+        <v>47.11733086470791</v>
       </c>
       <c r="L42" t="n">
-        <v>149.4363445488148</v>
+        <v>149.4363445488149</v>
       </c>
       <c r="M42" t="n">
-        <v>292.4531866122409</v>
+        <v>292.453186612241</v>
       </c>
       <c r="N42" t="n">
         <v>453.9673407649548</v>
@@ -7517,25 +7517,25 @@
         <v>652.5824410210658</v>
       </c>
       <c r="S42" t="n">
-        <v>652.266158965124</v>
+        <v>487.7888953086755</v>
       </c>
       <c r="T42" t="n">
-        <v>652.266158965124</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="U42" t="n">
-        <v>652.266158965124</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="V42" t="n">
-        <v>652.266158965124</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="W42" t="n">
-        <v>652.266158965124</v>
+        <v>322.9953495962851</v>
       </c>
       <c r="X42" t="n">
-        <v>652.266158965124</v>
+        <v>250.2322223683789</v>
       </c>
       <c r="Y42" t="n">
-        <v>652.266158965124</v>
+        <v>250.2322223683789</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="C43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="D43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="E43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="F43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="G43" t="n">
-        <v>322.9953495962851</v>
+        <v>169.2235994747982</v>
       </c>
       <c r="H43" t="n">
-        <v>226.1971390647908</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="I43" t="n">
-        <v>226.1971390647908</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="J43" t="n">
-        <v>166.8233989419082</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="K43" t="n">
-        <v>200.4507589314309</v>
+        <v>46.67900880994397</v>
       </c>
       <c r="L43" t="n">
-        <v>296.5694481315713</v>
+        <v>142.7976980100844</v>
       </c>
       <c r="M43" t="n">
-        <v>406.5090187077929</v>
+        <v>252.737268586306</v>
       </c>
       <c r="N43" t="n">
-        <v>521.8506082822976</v>
+        <v>368.0788581608107</v>
       </c>
       <c r="O43" t="n">
-        <v>606.3895884773299</v>
+        <v>452.6178383558429</v>
       </c>
       <c r="P43" t="n">
-        <v>652.5824410210658</v>
+        <v>498.810690899579</v>
       </c>
       <c r="Q43" t="n">
-        <v>652.5824410210658</v>
+        <v>498.810690899579</v>
       </c>
       <c r="R43" t="n">
-        <v>652.5824410210658</v>
+        <v>498.810690899579</v>
       </c>
       <c r="S43" t="n">
-        <v>652.5824410210658</v>
+        <v>498.810690899579</v>
       </c>
       <c r="T43" t="n">
-        <v>652.5824410210658</v>
+        <v>498.810690899579</v>
       </c>
       <c r="U43" t="n">
-        <v>487.7888953086755</v>
+        <v>498.810690899579</v>
       </c>
       <c r="V43" t="n">
-        <v>487.7888953086755</v>
+        <v>498.810690899579</v>
       </c>
       <c r="W43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="X43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
       <c r="Y43" t="n">
-        <v>487.7888953086755</v>
+        <v>334.0171451871886</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13.05164882042132</v>
+        <v>342.638740245202</v>
       </c>
       <c r="C44" t="n">
-        <v>13.05164882042132</v>
+        <v>342.638740245202</v>
       </c>
       <c r="D44" t="n">
-        <v>13.05164882042132</v>
+        <v>342.638740245202</v>
       </c>
       <c r="E44" t="n">
-        <v>13.05164882042132</v>
+        <v>342.638740245202</v>
       </c>
       <c r="F44" t="n">
-        <v>13.05164882042132</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="G44" t="n">
         <v>13.05164882042132</v>
@@ -7666,7 +7666,7 @@
         <v>503.7073750954046</v>
       </c>
       <c r="P44" t="n">
-        <v>652.5824410210658</v>
+        <v>558.2200218090344</v>
       </c>
       <c r="Q44" t="n">
         <v>652.5824410210658</v>
@@ -7681,19 +7681,19 @@
         <v>652.5824410210658</v>
       </c>
       <c r="U44" t="n">
-        <v>487.7888953086755</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="V44" t="n">
-        <v>322.9953495962851</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="W44" t="n">
-        <v>177.8451945328117</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="X44" t="n">
-        <v>177.8451945328117</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.05164882042132</v>
+        <v>507.4322859575924</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>177.8451945328117</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="C45" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="D45" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="E45" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="F45" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="G45" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="H45" t="n">
-        <v>13.05164882042132</v>
+        <v>85.43867665598854</v>
       </c>
       <c r="I45" t="n">
         <v>13.05164882042132</v>
@@ -7730,16 +7730,16 @@
         <v>13.05164882042132</v>
       </c>
       <c r="K45" t="n">
-        <v>47.11733086470791</v>
+        <v>47.11733086470781</v>
       </c>
       <c r="L45" t="n">
-        <v>149.4363445488149</v>
+        <v>149.4363445488148</v>
       </c>
       <c r="M45" t="n">
         <v>292.453186612241</v>
       </c>
       <c r="N45" t="n">
-        <v>453.9673407649548</v>
+        <v>453.9673407649549</v>
       </c>
       <c r="O45" t="n">
         <v>577.2353427476943</v>
@@ -7751,28 +7751,28 @@
         <v>652.5824410210658</v>
       </c>
       <c r="R45" t="n">
-        <v>581.5308219327738</v>
+        <v>652.5824410210658</v>
       </c>
       <c r="S45" t="n">
-        <v>416.7372762203835</v>
+        <v>579.8193137931596</v>
       </c>
       <c r="T45" t="n">
-        <v>251.9437305079931</v>
+        <v>579.8193137931596</v>
       </c>
       <c r="U45" t="n">
-        <v>251.9437305079931</v>
+        <v>579.8193137931596</v>
       </c>
       <c r="V45" t="n">
-        <v>251.9437305079931</v>
+        <v>415.0257680807693</v>
       </c>
       <c r="W45" t="n">
-        <v>251.9437305079931</v>
+        <v>415.0257680807693</v>
       </c>
       <c r="X45" t="n">
-        <v>177.8451945328117</v>
+        <v>415.0257680807693</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.8451945328117</v>
+        <v>250.2322223683789</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="C46" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="D46" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="E46" t="n">
-        <v>344.6816819629937</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="F46" t="n">
-        <v>326.5158418233437</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="G46" t="n">
-        <v>326.5158418233437</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="H46" t="n">
-        <v>166.8233989419082</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="I46" t="n">
-        <v>166.8233989419082</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="J46" t="n">
-        <v>166.8233989419082</v>
+        <v>13.05164882042132</v>
       </c>
       <c r="K46" t="n">
-        <v>200.4507589314309</v>
+        <v>46.67900880994397</v>
       </c>
       <c r="L46" t="n">
-        <v>296.5694481315713</v>
+        <v>142.7976980100844</v>
       </c>
       <c r="M46" t="n">
-        <v>406.5090187077929</v>
+        <v>252.737268586306</v>
       </c>
       <c r="N46" t="n">
-        <v>521.8506082822976</v>
+        <v>368.0788581608107</v>
       </c>
       <c r="O46" t="n">
-        <v>606.3895884773299</v>
+        <v>452.6178383558429</v>
       </c>
       <c r="P46" t="n">
-        <v>652.5824410210658</v>
+        <v>498.810690899579</v>
       </c>
       <c r="Q46" t="n">
-        <v>652.5824410210658</v>
+        <v>498.810690899579</v>
       </c>
       <c r="R46" t="n">
-        <v>487.7888953086755</v>
+        <v>498.810690899579</v>
       </c>
       <c r="S46" t="n">
-        <v>487.7888953086755</v>
+        <v>498.810690899579</v>
       </c>
       <c r="T46" t="n">
-        <v>487.7888953086755</v>
+        <v>498.810690899579</v>
       </c>
       <c r="U46" t="n">
-        <v>487.7888953086755</v>
+        <v>342.638740245202</v>
       </c>
       <c r="V46" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="W46" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="X46" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328117</v>
       </c>
       <c r="Y46" t="n">
-        <v>487.7888953086755</v>
+        <v>177.8451945328117</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>32.463187383541</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>95.31557496164794</v>
+        <v>62.85238757810698</v>
       </c>
       <c r="Q11" t="n">
         <v>18.01416505139179</v>
@@ -8929,7 +8929,7 @@
         <v>21.874443961335</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>95.31557496164803</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>24.6629059024863</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>70.6526690591617</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>18.01416505139179</v>
@@ -9169,13 +9169,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>7.615412291479231</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>7.615412291479174</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>80.77296500116071</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>14.54260996048731</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.01416505139179</v>
+        <v>113.3297400130397</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.874443961335</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>243.9185752564272</v>
+        <v>43.7920860384786</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>187.8085161577528</v>
       </c>
       <c r="O23" t="n">
-        <v>99.5329553939238</v>
+        <v>211.9592819417034</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9725,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>181.8297638808096</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>94.37908062787815</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>118.9131908257478</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9877,22 +9877,22 @@
         <v>21.874443961335</v>
       </c>
       <c r="K26" t="n">
-        <v>113.970385101231</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>243.9185752564272</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>195.6087976388075</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>187.8085161577528</v>
+        <v>110.7752019712792</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>211.9592819417034</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
         <v>18.01416505139179</v>
@@ -9953,13 +9953,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>36.21793895583305</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>7.634502944758061</v>
       </c>
       <c r="L27" t="n">
-        <v>129.4118422759713</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>181.8297638808096</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>201.7780871946344</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>10.64028264465711</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10114,25 +10114,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>5.553175693694037</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>243.9185752564272</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>195.6087976388075</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>115.4683723465875</v>
       </c>
       <c r="P29" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.01416505139179</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10190,28 +10190,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>36.21793895583305</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>222.9386814356774</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>181.8297638808096</v>
       </c>
       <c r="N30" t="n">
-        <v>88.30292472110361</v>
+        <v>160.2501911063294</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>201.7780871946344</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>53.74818591710806</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>10.64028264465711</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.874443961335</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>243.9185752564272</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>195.6087976388075</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>187.8085161577528</v>
       </c>
       <c r="O32" t="n">
-        <v>211.9592819417034</v>
+        <v>137.7060835349494</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.833784368672</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10427,28 +10427,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>36.21793895583305</v>
+        <v>78.63718990095862</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>222.9386814356774</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2501911063294</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>201.7780871946344</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.34341030864728</v>
+        <v>10.64028264465711</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.874443961335</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>95.31557496164803</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.01416505139179</v>
+        <v>25.62957734287109</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.874443961335</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.3297400130397</v>
+        <v>25.62957734287098</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -11065,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>38.18948167562073</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>32.46318738354103</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>24.66290590248627</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.01416505139179</v>
+        <v>113.3297400130397</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>95.31557496164794</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.01416505139179</v>
+        <v>113.3297400130397</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>227.7802585487974</v>
       </c>
       <c r="F11" t="n">
-        <v>240.053639384747</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>416.9002147407629</v>
+        <v>253.7546044854965</v>
       </c>
       <c r="H11" t="n">
-        <v>327.1742839686647</v>
+        <v>164.0286737133983</v>
       </c>
       <c r="I11" t="n">
-        <v>3.151024610965038</v>
+        <v>166.2966348662315</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>174.7508535705004</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>238.5869139056112</v>
+        <v>219.1399571631834</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.60488414239927</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -23345,7 +23345,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>8.681961584533212</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -23387,22 +23387,22 @@
         <v>70.34110289740906</v>
       </c>
       <c r="S12" t="n">
-        <v>9.185235771490028</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T12" t="n">
-        <v>67.09283922500228</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U12" t="n">
-        <v>237.159852453347</v>
+        <v>93.46119894050827</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>77.50331066013578</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>103.5589733217451</v>
       </c>
       <c r="X12" t="n">
-        <v>54.16730418420414</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -23436,10 +23436,10 @@
         <v>158.0955184526211</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>138.7107058999012</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.78000272165373</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>54.42485270188878</v>
       </c>
       <c r="R13" t="n">
-        <v>98.50273165540879</v>
+        <v>164.3430117350647</v>
       </c>
       <c r="S13" t="n">
         <v>220.288492801435</v>
@@ -23472,19 +23472,19 @@
         <v>220.0472708992378</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6091405317433</v>
+        <v>125.4635302764768</v>
       </c>
       <c r="V13" t="n">
-        <v>81.96340492918344</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>127.1650968340689</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>62.53104166633531</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>210.9416301225669</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>267.2197833562342</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>259.5005961271747</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>253.7546044854965</v>
+        <v>416.9002147407629</v>
       </c>
       <c r="H14" t="n">
         <v>327.1742839686647</v>
       </c>
       <c r="I14" t="n">
-        <v>3.151024610965038</v>
+        <v>166.2966348662315</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.1462772268456</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20.21016132196362</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T14" t="n">
         <v>213.9824692835151</v>
       </c>
       <c r="U14" t="n">
-        <v>249.9955048348989</v>
+        <v>86.84989457963243</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>174.7508535705004</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23579,7 +23579,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>85.81476446114894</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>70.34110289740906</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>9.185235771490028</v>
@@ -23630,7 +23630,7 @@
         <v>210.791492737841</v>
       </c>
       <c r="U15" t="n">
-        <v>74.01424219808052</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23639,7 +23639,7 @@
         <v>103.5589733217451</v>
       </c>
       <c r="X15" t="n">
-        <v>73.61426092663191</v>
+        <v>54.16730418420414</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -23658,16 +23658,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>129.4993013213242</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8314735854091</v>
+        <v>4.685863330142638</v>
       </c>
       <c r="H16" t="n">
         <v>158.0955184526211</v>
@@ -23706,19 +23706,19 @@
         <v>220.288492801435</v>
       </c>
       <c r="T16" t="n">
-        <v>56.9016606439713</v>
+        <v>220.0472708992378</v>
       </c>
       <c r="U16" t="n">
         <v>288.6091405317433</v>
       </c>
       <c r="V16" t="n">
-        <v>90.49878403661677</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>127.1650968340689</v>
       </c>
       <c r="X16" t="n">
-        <v>58.77384515297607</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23740,19 +23740,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>227.7802585487975</v>
+        <v>208.3333018063697</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>416.9002147407629</v>
+        <v>253.7546044854965</v>
       </c>
       <c r="H17" t="n">
-        <v>164.0286737133983</v>
+        <v>327.1742839686647</v>
       </c>
       <c r="I17" t="n">
-        <v>166.2966348662315</v>
+        <v>22.59798135339281</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>73.1462772268456</v>
       </c>
       <c r="S17" t="n">
-        <v>20.21016132196362</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T17" t="n">
         <v>213.9824692835151</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.41964860354823</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>24.37254126909946</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>70.34110289740906</v>
       </c>
       <c r="S18" t="n">
-        <v>172.3308460267565</v>
+        <v>28.63219251391777</v>
       </c>
       <c r="T18" t="n">
         <v>210.791492737841</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>14.47131040970163</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>54.42485270188878</v>
       </c>
       <c r="R19" t="n">
         <v>164.3430117350647</v>
       </c>
       <c r="S19" t="n">
-        <v>57.14288254616852</v>
+        <v>220.288492801435</v>
       </c>
       <c r="T19" t="n">
         <v>220.0472708992378</v>
       </c>
       <c r="U19" t="n">
-        <v>188.4237620857989</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>127.1650968340689</v>
+        <v>135.7004759415022</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>58.77384515297607</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23974,13 +23974,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>267.2197833562342</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>240.053639384747</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>253.7546044854965</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.1462772268456</v>
       </c>
       <c r="S20" t="n">
-        <v>20.21016132196362</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T20" t="n">
-        <v>213.9824692835151</v>
+        <v>70.28381577067634</v>
       </c>
       <c r="U20" t="n">
         <v>249.9955048348989</v>
@@ -24031,13 +24031,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>174.7508535705004</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>219.1399571631834</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>24.37254126909946</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -24059,7 +24059,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>147.7077054127944</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>70.34110289740906</v>
       </c>
       <c r="S21" t="n">
-        <v>9.185235771490028</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T21" t="n">
-        <v>210.791492737841</v>
+        <v>62.77066808966418</v>
       </c>
       <c r="U21" t="n">
-        <v>74.01424219808052</v>
+        <v>237.159852453347</v>
       </c>
       <c r="V21" t="n">
         <v>77.50331066013578</v>
@@ -24113,7 +24113,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>143.955363824041</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24129,13 +24129,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>153.5230910363642</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
         <v>138.9268822184467</v>
@@ -24177,16 +24177,16 @@
         <v>164.3430117350647</v>
       </c>
       <c r="S22" t="n">
-        <v>57.14288254616852</v>
+        <v>65.67826165360182</v>
       </c>
       <c r="T22" t="n">
         <v>220.0472708992378</v>
       </c>
       <c r="U22" t="n">
-        <v>125.4635302764768</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>81.96340492918344</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
@@ -24195,7 +24195,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>53.99566255890196</v>
       </c>
     </row>
     <row r="23">
@@ -24214,16 +24214,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>45.18769155110323</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>76.90802912948055</v>
       </c>
       <c r="G23" t="n">
         <v>416.9002147407629</v>
       </c>
       <c r="H23" t="n">
-        <v>327.1742839686647</v>
+        <v>0.8830634581318009</v>
       </c>
       <c r="I23" t="n">
         <v>166.2966348662315</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.1462772268456</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9824692835151</v>
       </c>
       <c r="U23" t="n">
         <v>249.9955048348989</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>289.9845253875503</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>143.4324276192408</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>55.99434690791696</v>
@@ -24287,7 +24287,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -24299,7 +24299,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.7077054127944</v>
+        <v>36.09323802029974</v>
       </c>
       <c r="H24" t="n">
         <v>115.7212625938658</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>210.791492737841</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.42510583350094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24378,10 +24378,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8314735854091</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>158.0955184526211</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>138.7107058999012</v>
@@ -24420,13 +24420,13 @@
         <v>220.0472708992378</v>
       </c>
       <c r="U25" t="n">
-        <v>264.475576934685</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>90.13455556411407</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24451,13 +24451,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>365.7989146449384</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>416.9002147407629</v>
+        <v>90.60899423023</v>
       </c>
       <c r="H26" t="n">
         <v>327.1742839686647</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.1462772268456</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V26" t="n">
-        <v>28.23378125805283</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>33.4914937841732</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>55.99434690791696</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>141.3988898351089</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>70.34110289740906</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>149.0187444899619</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.47555331033071</v>
+        <v>54.42485270188878</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>123.7773237773714</v>
       </c>
       <c r="S28" t="n">
-        <v>220.288492801435</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.0472708992378</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>59.65875190671295</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>11.48093913169436</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.1462772268456</v>
       </c>
       <c r="S29" t="n">
-        <v>183.3557715772301</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9824692835151</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>165.9352807429846</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>13.5793127109452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>86.2687671089144</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>54.42485270188878</v>
       </c>
       <c r="R31" t="n">
         <v>164.3430117350647</v>
       </c>
       <c r="S31" t="n">
-        <v>15.73134925320028</v>
+        <v>220.288492801435</v>
       </c>
       <c r="T31" t="n">
         <v>220.0472708992378</v>
@@ -24900,10 +24900,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>31.32871083921182</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24919,22 +24919,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>23.91427687064589</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>45.18769155110323</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>416.9002147407629</v>
+        <v>202.6491849419311</v>
       </c>
       <c r="H32" t="n">
-        <v>327.1742839686647</v>
+        <v>0.8830634581318009</v>
       </c>
       <c r="I32" t="n">
         <v>166.2966348662315</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9824692835151</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V32" t="n">
-        <v>101.3800584848985</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>11.60524331523396</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
@@ -25004,19 +25004,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>143.7088388026523</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H33" t="n">
-        <v>115.7212625938658</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25055,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>37.61364436274496</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>54.42485270188878</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>164.3430117350647</v>
       </c>
       <c r="S34" t="n">
         <v>220.288492801435</v>
@@ -25131,13 +25131,13 @@
         <v>220.0472708992378</v>
       </c>
       <c r="U34" t="n">
-        <v>26.47555331033072</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>54.5182706154192</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>210.9416301225668</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>267.2197833562342</v>
       </c>
       <c r="E35" t="n">
         <v>208.3333018063697</v>
@@ -25168,7 +25168,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>416.9002147407629</v>
+        <v>253.7546044854964</v>
       </c>
       <c r="H35" t="n">
         <v>327.1742839686647</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.1462772268456</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.65711806439137</v>
+        <v>183.3557715772301</v>
       </c>
       <c r="T35" t="n">
         <v>213.9824692835151</v>
       </c>
       <c r="U35" t="n">
-        <v>86.84989457963243</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V35" t="n">
-        <v>157.7341733538856</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -25235,10 +25235,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>24.37254126909946</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -25247,13 +25247,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.7077054127944</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>115.7212625938658</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>70.34110289740906</v>
       </c>
       <c r="S36" t="n">
-        <v>9.185235771490028</v>
+        <v>172.3308460267565</v>
       </c>
       <c r="T36" t="n">
-        <v>210.791492737841</v>
+        <v>47.64588248257451</v>
       </c>
       <c r="U36" t="n">
         <v>237.159852453347</v>
       </c>
       <c r="V36" t="n">
-        <v>92.97697222387566</v>
+        <v>105.7511724559023</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.47131040970163</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>54.42485270188878</v>
       </c>
       <c r="R37" t="n">
-        <v>164.3430117350647</v>
+        <v>1.197401479798202</v>
       </c>
       <c r="S37" t="n">
         <v>220.288492801435</v>
       </c>
       <c r="T37" t="n">
-        <v>220.0472708992378</v>
+        <v>56.90166064397127</v>
       </c>
       <c r="U37" t="n">
-        <v>125.4635302764768</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V37" t="n">
-        <v>144.9236367385056</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>290.3107070893353</v>
@@ -25380,7 +25380,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>62.53104166633531</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>230.3885868649946</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>187.0598871259124</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>174.6265493869608</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>208.3333018063697</v>
       </c>
       <c r="F38" t="n">
-        <v>240.053639384747</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>253.7546044854965</v>
+        <v>416.9002147407629</v>
       </c>
       <c r="H38" t="n">
         <v>327.1742839686647</v>
@@ -25450,7 +25450,7 @@
         <v>249.9955048348989</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>157.7341733538856</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>238.5869139056112</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.07854570613915</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>24.37254126909946</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -25487,10 +25487,10 @@
         <v>147.7077054127944</v>
       </c>
       <c r="H39" t="n">
-        <v>115.7212625938658</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>70.34110289740906</v>
       </c>
       <c r="S39" t="n">
-        <v>172.3308460267565</v>
+        <v>9.185235771490028</v>
       </c>
       <c r="T39" t="n">
-        <v>210.791492737841</v>
+        <v>47.64588248257454</v>
       </c>
       <c r="U39" t="n">
         <v>237.159852453347</v>
@@ -25532,13 +25532,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>147.2447399599838</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.23867587875915</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>3.311570716705887</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,10 +25560,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8314735854091</v>
+        <v>4.685863330142638</v>
       </c>
       <c r="H40" t="n">
         <v>158.0955184526211</v>
@@ -25572,7 +25572,7 @@
         <v>138.7107058999012</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.78000272165373</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>164.3430117350647</v>
       </c>
       <c r="S40" t="n">
-        <v>100.2395363384358</v>
+        <v>57.14288254616852</v>
       </c>
       <c r="T40" t="n">
         <v>220.0472708992378</v>
@@ -25608,7 +25608,7 @@
         <v>288.6091405317433</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>90.4987840366168</v>
       </c>
       <c r="W40" t="n">
         <v>290.3107070893353</v>
@@ -25633,19 +25633,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>174.6265493869608</v>
       </c>
       <c r="E41" t="n">
-        <v>208.3333018063697</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>332.6468733540204</v>
       </c>
       <c r="G41" t="n">
-        <v>253.7546044854965</v>
+        <v>416.9002147407629</v>
       </c>
       <c r="H41" t="n">
-        <v>256.6219076826716</v>
+        <v>164.0286737133983</v>
       </c>
       <c r="I41" t="n">
         <v>166.2966348662315</v>
@@ -25684,7 +25684,7 @@
         <v>213.9824692835151</v>
       </c>
       <c r="U41" t="n">
-        <v>86.84989457963243</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25693,7 +25693,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>196.6371040394397</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25709,7 +25709,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>24.37254126909946</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -25718,16 +25718,16 @@
         <v>8.681961584533212</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.7077054127944</v>
       </c>
       <c r="H42" t="n">
         <v>115.7212625938658</v>
       </c>
       <c r="I42" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>70.34110289740906</v>
       </c>
       <c r="S42" t="n">
-        <v>172.017726791374</v>
+        <v>9.185235771490028</v>
       </c>
       <c r="T42" t="n">
-        <v>210.791492737841</v>
+        <v>47.64588248257454</v>
       </c>
       <c r="U42" t="n">
         <v>237.159852453347</v>
@@ -25772,7 +25772,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>145.2774184838435</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -25803,13 +25803,13 @@
         <v>4.685863330142638</v>
       </c>
       <c r="H43" t="n">
-        <v>62.26529002644173</v>
+        <v>3.48528730478796</v>
       </c>
       <c r="I43" t="n">
         <v>138.7107058999012</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.78000272165373</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>220.0472708992378</v>
       </c>
       <c r="U43" t="n">
-        <v>125.4635302764768</v>
+        <v>288.6091405317433</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>127.1650968340689</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>210.9416301225669</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25876,10 +25876,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>240.053639384747</v>
       </c>
       <c r="G44" t="n">
-        <v>416.9002147407629</v>
+        <v>253.7546044854965</v>
       </c>
       <c r="H44" t="n">
         <v>327.1742839686647</v>
@@ -25921,19 +25921,19 @@
         <v>213.9824692835151</v>
       </c>
       <c r="U44" t="n">
-        <v>86.84989457963243</v>
+        <v>249.9955048348989</v>
       </c>
       <c r="V44" t="n">
-        <v>157.7341733538856</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>194.1978103129282</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.1399571631834</v>
+        <v>238.5869139056112</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>13.60488414239927</v>
       </c>
       <c r="C45" t="n">
-        <v>24.37254126909946</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -25964,7 +25964,7 @@
         <v>115.7212625938658</v>
       </c>
       <c r="I45" t="n">
-        <v>71.66315755721155</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>70.34110289740906</v>
       </c>
       <c r="S45" t="n">
-        <v>9.185235771490028</v>
+        <v>100.2953500711293</v>
       </c>
       <c r="T45" t="n">
-        <v>47.64588248257454</v>
+        <v>210.791492737841</v>
       </c>
       <c r="U45" t="n">
         <v>237.159852453347</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>77.50331066013578</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>143.955363824041</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>60.23867587875915</v>
       </c>
     </row>
     <row r="46">
@@ -26031,16 +26031,16 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>120.9427004801932</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8314735854091</v>
+        <v>4.685863330142638</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>158.0955184526211</v>
       </c>
       <c r="I46" t="n">
         <v>138.7107058999012</v>
@@ -26070,7 +26070,7 @@
         <v>54.42485270188878</v>
       </c>
       <c r="R46" t="n">
-        <v>1.197401479798231</v>
+        <v>164.3430117350647</v>
       </c>
       <c r="S46" t="n">
         <v>220.288492801435</v>
@@ -26079,10 +26079,10 @@
         <v>220.0472708992378</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6091405317433</v>
+        <v>133.9989093839101</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>81.96340492918344</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402130.4116340726</v>
+        <v>402130.4116340725</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402130.4116340724</v>
+        <v>402130.4116340726</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>402130.4116340724</v>
+        <v>402130.4116340726</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512815.3830161375</v>
+        <v>512815.3830161373</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402130.4116340727</v>
+        <v>402130.4116340725</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>402130.4116340725</v>
+        <v>402130.4116340724</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402130.4116340726</v>
+        <v>402130.4116340725</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823446</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="E2" t="n">
         <v>290926.8815359729</v>
@@ -26334,28 +26334,28 @@
         <v>290926.8815359729</v>
       </c>
       <c r="I2" t="n">
+        <v>348858.7783474682</v>
+      </c>
+      <c r="J2" t="n">
+        <v>348858.7783474682</v>
+      </c>
+      <c r="K2" t="n">
+        <v>348858.7783474682</v>
+      </c>
+      <c r="L2" t="n">
         <v>348858.7783474683</v>
       </c>
-      <c r="J2" t="n">
-        <v>348858.7783474684</v>
-      </c>
-      <c r="K2" t="n">
-        <v>348858.7783474683</v>
-      </c>
-      <c r="L2" t="n">
-        <v>348858.7783474682</v>
-      </c>
       <c r="M2" t="n">
-        <v>290926.8815359729</v>
+        <v>290926.8815359728</v>
       </c>
       <c r="N2" t="n">
         <v>290926.8815359728</v>
       </c>
       <c r="O2" t="n">
+        <v>290926.8815359728</v>
+      </c>
+      <c r="P2" t="n">
         <v>290926.8815359729</v>
-      </c>
-      <c r="P2" t="n">
-        <v>290926.8815359728</v>
       </c>
     </row>
     <row r="3">
@@ -26441,10 +26441,10 @@
         <v>47924.44178058393</v>
       </c>
       <c r="J4" t="n">
-        <v>47924.44178058393</v>
+        <v>47924.4417805839</v>
       </c>
       <c r="K4" t="n">
-        <v>47924.44178058392</v>
+        <v>47924.4417805839</v>
       </c>
       <c r="L4" t="n">
         <v>47924.44178058391</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155279.2359656892</v>
+        <v>155234.5721236375</v>
       </c>
       <c r="C6" t="n">
-        <v>155279.2359656892</v>
+        <v>155234.5721236374</v>
       </c>
       <c r="D6" t="n">
-        <v>155279.2359656893</v>
+        <v>155234.5721236375</v>
       </c>
       <c r="E6" t="n">
-        <v>-263357.997892887</v>
+        <v>-275753.3988964847</v>
       </c>
       <c r="F6" t="n">
-        <v>253929.2461293085</v>
+        <v>241533.8451257109</v>
       </c>
       <c r="G6" t="n">
-        <v>253929.2461293085</v>
+        <v>241533.8451257109</v>
       </c>
       <c r="H6" t="n">
-        <v>253929.2461293085</v>
+        <v>241533.8451257109</v>
       </c>
       <c r="I6" t="n">
-        <v>224997.3874145698</v>
+        <v>214533.0496380219</v>
       </c>
       <c r="J6" t="n">
-        <v>268381.2312392606</v>
+        <v>257916.8934627127</v>
       </c>
       <c r="K6" t="n">
-        <v>268381.2312392605</v>
+        <v>257916.8934627127</v>
       </c>
       <c r="L6" t="n">
-        <v>268381.2312392605</v>
+        <v>257916.8934627127</v>
       </c>
       <c r="M6" t="n">
-        <v>253929.2461293085</v>
+        <v>241533.8451257108</v>
       </c>
       <c r="N6" t="n">
-        <v>253929.2461293084</v>
+        <v>241533.8451257108</v>
       </c>
       <c r="O6" t="n">
-        <v>253929.2461293085</v>
+        <v>241533.8451257108</v>
       </c>
       <c r="P6" t="n">
-        <v>253929.2461293084</v>
+        <v>241533.8451257109</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>163.1456102552665</v>
+        <v>163.1456102552664</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31852,7 +31852,7 @@
         <v>317.8649780145857</v>
       </c>
       <c r="N12" t="n">
-        <v>323.3824989969332</v>
+        <v>323.3824989969331</v>
       </c>
       <c r="O12" t="n">
         <v>298.4805515381207</v>
@@ -32089,7 +32089,7 @@
         <v>317.8649780145857</v>
       </c>
       <c r="N15" t="n">
-        <v>323.3824989969331</v>
+        <v>323.3824989969332</v>
       </c>
       <c r="O15" t="n">
         <v>298.4805515381207</v>
@@ -33985,7 +33985,7 @@
         <v>317.8649780145857</v>
       </c>
       <c r="N39" t="n">
-        <v>323.3824989969332</v>
+        <v>323.3824989969331</v>
       </c>
       <c r="O39" t="n">
         <v>298.4805515381207</v>
@@ -34213,7 +34213,7 @@
         <v>118.5239655775003</v>
       </c>
       <c r="K42" t="n">
-        <v>202.5763353914316</v>
+        <v>202.5763353914317</v>
       </c>
       <c r="L42" t="n">
         <v>272.3888824063021</v>
@@ -34450,7 +34450,7 @@
         <v>118.5239655775003</v>
       </c>
       <c r="K45" t="n">
-        <v>202.5763353914317</v>
+        <v>202.5763353914316</v>
       </c>
       <c r="L45" t="n">
         <v>272.3888824063021</v>
@@ -35418,7 +35418,7 @@
         <v>82.37264525410575</v>
       </c>
       <c r="M11" t="n">
-        <v>130.6824228717255</v>
+        <v>163.1456102552665</v>
       </c>
       <c r="N11" t="n">
         <v>138.4827043527802</v>
@@ -35427,7 +35427,7 @@
         <v>114.3319385688295</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3788544703648</v>
+        <v>117.9156670868239</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>29.74213367476449</v>
+        <v>125.0577086364125</v>
       </c>
       <c r="L14" t="n">
         <v>82.37264525410575</v>
@@ -35658,13 +35658,13 @@
         <v>130.6824228717255</v>
       </c>
       <c r="N14" t="n">
-        <v>163.1456102552665</v>
+        <v>138.4827043527802</v>
       </c>
       <c r="O14" t="n">
         <v>114.3319385688295</v>
       </c>
       <c r="P14" t="n">
-        <v>125.7159485678786</v>
+        <v>55.0632795087169</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>124.5131333158985</v>
       </c>
       <c r="P15" t="n">
-        <v>76.10818007411268</v>
+        <v>76.10818007411265</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>29.74213367476449</v>
       </c>
       <c r="L17" t="n">
-        <v>82.37264525410575</v>
+        <v>89.98805754558498</v>
       </c>
       <c r="M17" t="n">
         <v>130.6824228717255</v>
       </c>
       <c r="N17" t="n">
-        <v>146.0981166442593</v>
+        <v>138.4827043527802</v>
       </c>
       <c r="O17" t="n">
         <v>114.3319385688295</v>
@@ -36126,7 +36126,7 @@
         <v>29.74213367476449</v>
       </c>
       <c r="L20" t="n">
-        <v>163.1456102552665</v>
+        <v>82.37264525410575</v>
       </c>
       <c r="M20" t="n">
         <v>130.6824228717255</v>
@@ -36138,10 +36138,10 @@
         <v>114.3319385688295</v>
       </c>
       <c r="P20" t="n">
-        <v>69.60588946920421</v>
+        <v>55.0632795087169</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>95.31557496164794</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>87.70016267016881</v>
       </c>
       <c r="K23" t="n">
         <v>239.7883610208793</v>
       </c>
       <c r="L23" t="n">
-        <v>326.2912205105329</v>
+        <v>126.1647312925843</v>
       </c>
       <c r="M23" t="n">
         <v>130.6824228717255</v>
@@ -36372,7 +36372,7 @@
         <v>326.2912205105329</v>
       </c>
       <c r="O23" t="n">
-        <v>213.8648939627533</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="P23" t="n">
         <v>55.0632795087169</v>
@@ -36445,16 +36445,16 @@
         <v>103.3525390748555</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2912205105329</v>
+        <v>144.4614566297233</v>
       </c>
       <c r="N24" t="n">
-        <v>166.0410294042036</v>
+        <v>260.4201100320817</v>
       </c>
       <c r="O24" t="n">
         <v>124.5131333158985</v>
       </c>
       <c r="P24" t="n">
-        <v>195.0213708998605</v>
+        <v>282.4720541527919</v>
       </c>
       <c r="Q24" t="n">
         <v>125.4897998081731</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>143.7125187759955</v>
+        <v>239.7883610208793</v>
       </c>
       <c r="L26" t="n">
+        <v>82.37264525410575</v>
+      </c>
+      <c r="M26" t="n">
+        <v>130.6824228717255</v>
+      </c>
+      <c r="N26" t="n">
+        <v>249.2579063240594</v>
+      </c>
+      <c r="O26" t="n">
         <v>326.2912205105329</v>
       </c>
-      <c r="M26" t="n">
-        <v>326.2912205105329</v>
-      </c>
-      <c r="N26" t="n">
-        <v>326.2912205105329</v>
-      </c>
-      <c r="O26" t="n">
-        <v>114.3319385688295</v>
-      </c>
       <c r="P26" t="n">
-        <v>55.0632795087169</v>
+        <v>263.5888424038377</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>45.48905194475188</v>
       </c>
       <c r="K27" t="n">
-        <v>34.40977984271368</v>
+        <v>42.04428278747174</v>
       </c>
       <c r="L27" t="n">
-        <v>232.7643813508269</v>
+        <v>103.3525390748555</v>
       </c>
       <c r="M27" t="n">
         <v>326.2912205105329</v>
@@ -36688,13 +36688,13 @@
         <v>166.0410294042036</v>
       </c>
       <c r="O27" t="n">
-        <v>124.5131333158985</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="P27" t="n">
         <v>282.4720541527919</v>
       </c>
       <c r="Q27" t="n">
-        <v>125.4897998081731</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>87.70016267016881</v>
       </c>
       <c r="K29" t="n">
-        <v>35.29530936845853</v>
+        <v>239.7883610208793</v>
       </c>
       <c r="L29" t="n">
-        <v>326.2912205105329</v>
+        <v>82.37264525410575</v>
       </c>
       <c r="M29" t="n">
-        <v>326.2912205105329</v>
+        <v>130.6824228717255</v>
       </c>
       <c r="N29" t="n">
         <v>138.4827043527802</v>
       </c>
       <c r="O29" t="n">
-        <v>114.3319385688295</v>
+        <v>229.800310915417</v>
       </c>
       <c r="P29" t="n">
         <v>263.5888424038377</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>119.5659488962264</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>45.48905194475188</v>
       </c>
       <c r="K30" t="n">
         <v>34.40977984271368</v>
       </c>
       <c r="L30" t="n">
+        <v>103.3525390748555</v>
+      </c>
+      <c r="M30" t="n">
         <v>326.2912205105329</v>
       </c>
-      <c r="M30" t="n">
-        <v>144.4614566297233</v>
-      </c>
       <c r="N30" t="n">
-        <v>254.3439541253072</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="O30" t="n">
-        <v>124.5131333158985</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="P30" t="n">
-        <v>282.4720541527919</v>
+        <v>129.8563659912207</v>
       </c>
       <c r="Q30" t="n">
-        <v>125.4897998081731</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>87.70016267016881</v>
       </c>
       <c r="K32" t="n">
         <v>29.74213367476449</v>
       </c>
       <c r="L32" t="n">
+        <v>82.37264525410575</v>
+      </c>
+      <c r="M32" t="n">
+        <v>130.6824228717255</v>
+      </c>
+      <c r="N32" t="n">
         <v>326.2912205105329</v>
       </c>
-      <c r="M32" t="n">
-        <v>326.2912205105329</v>
-      </c>
-      <c r="N32" t="n">
-        <v>138.4827043527802</v>
-      </c>
       <c r="O32" t="n">
-        <v>326.2912205105329</v>
+        <v>252.0380221037789</v>
       </c>
       <c r="P32" t="n">
-        <v>55.0632795087169</v>
+        <v>263.5888424038377</v>
       </c>
       <c r="Q32" t="n">
-        <v>89.81961931728019</v>
+        <v>119.5659488962264</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>42.41925094512558</v>
       </c>
       <c r="K33" t="n">
-        <v>34.40977984271368</v>
+        <v>205.7832534268646</v>
       </c>
       <c r="L33" t="n">
-        <v>103.3525390748555</v>
+        <v>326.2912205105329</v>
       </c>
       <c r="M33" t="n">
         <v>144.4614566297233</v>
       </c>
       <c r="N33" t="n">
-        <v>326.2912205105329</v>
+        <v>166.0410294042036</v>
       </c>
       <c r="O33" t="n">
-        <v>326.2912205105329</v>
+        <v>124.5131333158985</v>
       </c>
       <c r="P33" t="n">
         <v>282.4720541527919</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.70312766399017</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>87.70016267016881</v>
       </c>
       <c r="K35" t="n">
-        <v>125.0577086364125</v>
+        <v>29.74213367476449</v>
       </c>
       <c r="L35" t="n">
         <v>82.37264525410575</v>
@@ -37326,7 +37326,7 @@
         <v>55.0632795087169</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>7.615412291479308</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>87.70016267016881</v>
       </c>
       <c r="K38" t="n">
         <v>29.74213367476449</v>
@@ -37563,7 +37563,7 @@
         <v>55.0632795087169</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.31557496164794</v>
+        <v>7.615412291479194</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>29.74213367476449</v>
       </c>
       <c r="L41" t="n">
-        <v>120.5621269297265</v>
+        <v>82.37264525410575</v>
       </c>
       <c r="M41" t="n">
-        <v>163.1456102552665</v>
+        <v>130.6824228717255</v>
       </c>
       <c r="N41" t="n">
-        <v>163.1456102552665</v>
+        <v>138.4827043527802</v>
       </c>
       <c r="O41" t="n">
         <v>114.3319385688295</v>
@@ -37800,7 +37800,7 @@
         <v>55.0632795087169</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>95.31557496164794</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>34.40977984271368</v>
+        <v>34.40977984271372</v>
       </c>
       <c r="L42" t="n">
         <v>103.3525390748555</v>
@@ -38034,10 +38034,10 @@
         <v>114.3319385688295</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3788544703648</v>
+        <v>55.0632795087169</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>95.31557496164794</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>34.40977984271372</v>
+        <v>34.40977984271368</v>
       </c>
       <c r="L45" t="n">
         <v>103.3525390748555</v>
